--- a/data/hotels_by_city/Houston/Houston_shard_679.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_679.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="312">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56110-d729624-Reviews-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-WoodSpring-Suites-Houston-La-Porte.h1771666.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,825 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r561382666-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>56110</t>
+  </si>
+  <si>
+    <t>729624</t>
+  </si>
+  <si>
+    <t>561382666</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seriously disappointing </t>
+  </si>
+  <si>
+    <t>Just letting you know how disappointing my stay at the La Porte TX location was.  Fire alarms went off at least 5 times the month I was there and at all hours of time. The trash bin was kept located in the hallway on first floor so if there actually had been a fire it could have impeded safe passage though there. The door to the elevator electrical room was kept propped open at all times with a box fan cooling the room, which honestly is why I think the fire alarms went off. Staff takes money to wash guests clothing but then passes it on to someone else to do causing guest not to get it back in time.  Beds are seriously awful!!! They are completely worn out with the sides bowing in around the middle medal bar of the frame.  We stayed as a guest for over a month and room was only serviced once during that time. When I asked, was told it was just the way service fell.  Some of the staff over charges or under charges guest for their room, causing a huge hassle for workers that are already tired and in a bad mood from long hours.  Doors are being slammed all night long by staff going in and out of laundry room.  The side doors are the worst, you have to walk thru multiple people smoking right at the door to get into...Just letting you know how disappointing my stay at the La Porte TX location was.  Fire alarms went off at least 5 times the month I was there and at all hours of time. The trash bin was kept located in the hallway on first floor so if there actually had been a fire it could have impeded safe passage though there. The door to the elevator electrical room was kept propped open at all times with a box fan cooling the room, which honestly is why I think the fire alarms went off. Staff takes money to wash guests clothing but then passes it on to someone else to do causing guest not to get it back in time.  Beds are seriously awful!!! They are completely worn out with the sides bowing in around the middle medal bar of the frame.  We stayed as a guest for over a month and room was only serviced once during that time. When I asked, was told it was just the way service fell.  Some of the staff over charges or under charges guest for their room, causing a huge hassle for workers that are already tired and in a bad mood from long hours.  Doors are being slammed all night long by staff going in and out of laundry room.  The side doors are the worst, you have to walk thru multiple people smoking right at the door to get into hotel.  That’s just a few of the problems I had during my stay.   The best thing about the hotel is the cameras everywhere and you have to have a key card to get passed the front desk. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 20, 2018</t>
+  </si>
+  <si>
+    <t>Just letting you know how disappointing my stay at the La Porte TX location was.  Fire alarms went off at least 5 times the month I was there and at all hours of time. The trash bin was kept located in the hallway on first floor so if there actually had been a fire it could have impeded safe passage though there. The door to the elevator electrical room was kept propped open at all times with a box fan cooling the room, which honestly is why I think the fire alarms went off. Staff takes money to wash guests clothing but then passes it on to someone else to do causing guest not to get it back in time.  Beds are seriously awful!!! They are completely worn out with the sides bowing in around the middle medal bar of the frame.  We stayed as a guest for over a month and room was only serviced once during that time. When I asked, was told it was just the way service fell.  Some of the staff over charges or under charges guest for their room, causing a huge hassle for workers that are already tired and in a bad mood from long hours.  Doors are being slammed all night long by staff going in and out of laundry room.  The side doors are the worst, you have to walk thru multiple people smoking right at the door to get into...Just letting you know how disappointing my stay at the La Porte TX location was.  Fire alarms went off at least 5 times the month I was there and at all hours of time. The trash bin was kept located in the hallway on first floor so if there actually had been a fire it could have impeded safe passage though there. The door to the elevator electrical room was kept propped open at all times with a box fan cooling the room, which honestly is why I think the fire alarms went off. Staff takes money to wash guests clothing but then passes it on to someone else to do causing guest not to get it back in time.  Beds are seriously awful!!! They are completely worn out with the sides bowing in around the middle medal bar of the frame.  We stayed as a guest for over a month and room was only serviced once during that time. When I asked, was told it was just the way service fell.  Some of the staff over charges or under charges guest for their room, causing a huge hassle for workers that are already tired and in a bad mood from long hours.  Doors are being slammed all night long by staff going in and out of laundry room.  The side doors are the worst, you have to walk thru multiple people smoking right at the door to get into hotel.  That’s just a few of the problems I had during my stay.   The best thing about the hotel is the cameras everywhere and you have to have a key card to get passed the front desk. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r555231857-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>555231857</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>There are better options around</t>
+  </si>
+  <si>
+    <t>I spent a week there. Told the management about the dark corridors and lack of lights, but no action was taken. Maintenance and cleaning was another big problem. There was too much noise and disturbances at nights too.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded January 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 24, 2018</t>
+  </si>
+  <si>
+    <t>I spent a week there. Told the management about the dark corridors and lack of lights, but no action was taken. Maintenance and cleaning was another big problem. There was too much noise and disturbances at nights too.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r549308844-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>549308844</t>
+  </si>
+  <si>
+    <t>12/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comfortable </t>
+  </si>
+  <si>
+    <t>Staff is / was nice and helpful - check in / check out was a breeze. Good staff.Good overall stay, room was comfortable and located in a good area - no issues and etc - low key type of property and would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded December 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 28, 2017</t>
+  </si>
+  <si>
+    <t>Staff is / was nice and helpful - check in / check out was a breeze. Good staff.Good overall stay, room was comfortable and located in a good area - no issues and etc - low key type of property and would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r529209694-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>529209694</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Disappointed</t>
+  </si>
+  <si>
+    <t>This hotel is full of cigarette smoke Advertised as a smoke free hotel and the entire hotel reeks of cigarette smell. Matinence tried to cover up the smell but totally grossThis is an extended stay and there was no coffee maker or coffee, no utensils or plates and no pots and pans. MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded October 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is full of cigarette smoke Advertised as a smoke free hotel and the entire hotel reeks of cigarette smell. Matinence tried to cover up the smell but totally grossThis is an extended stay and there was no coffee maker or coffee, no utensils or plates and no pots and pans. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r507147902-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>507147902</t>
+  </si>
+  <si>
+    <t>07/30/2017</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>Good beds. They have kitchenette but nothing to cook with no coffee pot no plastic eating utensils. I'm surprised they furnish towels and sheets. I guess it's the kind of place where you have to bring everything. No hair dryer no shampoo. No kitchen towels. Not my kinda place. Air conditioner set on 60 and room never got below 80.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2017</t>
+  </si>
+  <si>
+    <t>Good beds. They have kitchenette but nothing to cook with no coffee pot no plastic eating utensils. I'm surprised they furnish towels and sheets. I guess it's the kind of place where you have to bring everything. No hair dryer no shampoo. No kitchen towels. Not my kinda place. Air conditioner set on 60 and room never got below 80.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r505656726-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>505656726</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not recommend </t>
+  </si>
+  <si>
+    <t>Guys standing right by the entrance smoking a cigarette. So disrespectful to those that do not smoke and a sign clearly visible to be so many feet from the entrance. 
+Walked in the very small lobby and it stunk so badly. Used a room key to get past the lobby and the smell was worse. 
+The elevator took a very long time to get to the 2nd floor all weekend long. 
+Our room had a very bad odor and we picked up some room spray at the local Walmart. 
+There were three guests registered but only 2 towels, 2 washcloths and 1 bath mat. I went to the very expensive laundry room to wash the towels, etc and asked for more at the front desk (2 to be exact). It cost $2 to wash and dry each.... I did like the fact that you could use your debit card or credit card (and of course quarters) to use the machines.
+The front desk agent asked for the used linens but I told her I was washing them. As I was handed the towels, I asked about the washcloths and I was told there were inside the towels. Once I got back to our room and looked in the towels, there were only 2 towels and a bath mat. 
+The smoke alarm went off in the middle of our nap on Saturday and scared me terribly as I didn't feel all...Guys standing right by the entrance smoking a cigarette. So disrespectful to those that do not smoke and a sign clearly visible to be so many feet from the entrance. Walked in the very small lobby and it stunk so badly. Used a room key to get past the lobby and the smell was worse. The elevator took a very long time to get to the 2nd floor all weekend long. Our room had a very bad odor and we picked up some room spray at the local Walmart. There were three guests registered but only 2 towels, 2 washcloths and 1 bath mat. I went to the very expensive laundry room to wash the towels, etc and asked for more at the front desk (2 to be exact). It cost $2 to wash and dry each.... I did like the fact that you could use your debit card or credit card (and of course quarters) to use the machines.The front desk agent asked for the used linens but I told her I was washing them. As I was handed the towels, I asked about the washcloths and I was told there were inside the towels. Once I got back to our room and looked in the towels, there were only 2 towels and a bath mat. The smoke alarm went off in the middle of our nap on Saturday and scared me terribly as I didn't feel all that comfortable to begin with. There was previous guests hair on the bedspreads and in the bathroom. It was pretty disgusting. There was mildew or mold in the shower. There was hair and some other unidentifiable mess on the inside of the toilet lid. I cleaned it up with some Clorox wipes!! You could hear upstairs neighbors walking all the time. Louder volume on the tv was an easy fix. They did not serve breakfast nor was there a swimming pool. Will never stay here again or any other suites place!! MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 29, 2017</t>
+  </si>
+  <si>
+    <t>Guys standing right by the entrance smoking a cigarette. So disrespectful to those that do not smoke and a sign clearly visible to be so many feet from the entrance. 
+Walked in the very small lobby and it stunk so badly. Used a room key to get past the lobby and the smell was worse. 
+The elevator took a very long time to get to the 2nd floor all weekend long. 
+Our room had a very bad odor and we picked up some room spray at the local Walmart. 
+There were three guests registered but only 2 towels, 2 washcloths and 1 bath mat. I went to the very expensive laundry room to wash the towels, etc and asked for more at the front desk (2 to be exact). It cost $2 to wash and dry each.... I did like the fact that you could use your debit card or credit card (and of course quarters) to use the machines.
+The front desk agent asked for the used linens but I told her I was washing them. As I was handed the towels, I asked about the washcloths and I was told there were inside the towels. Once I got back to our room and looked in the towels, there were only 2 towels and a bath mat. 
+The smoke alarm went off in the middle of our nap on Saturday and scared me terribly as I didn't feel all...Guys standing right by the entrance smoking a cigarette. So disrespectful to those that do not smoke and a sign clearly visible to be so many feet from the entrance. Walked in the very small lobby and it stunk so badly. Used a room key to get past the lobby and the smell was worse. The elevator took a very long time to get to the 2nd floor all weekend long. Our room had a very bad odor and we picked up some room spray at the local Walmart. There were three guests registered but only 2 towels, 2 washcloths and 1 bath mat. I went to the very expensive laundry room to wash the towels, etc and asked for more at the front desk (2 to be exact). It cost $2 to wash and dry each.... I did like the fact that you could use your debit card or credit card (and of course quarters) to use the machines.The front desk agent asked for the used linens but I told her I was washing them. As I was handed the towels, I asked about the washcloths and I was told there were inside the towels. Once I got back to our room and looked in the towels, there were only 2 towels and a bath mat. The smoke alarm went off in the middle of our nap on Saturday and scared me terribly as I didn't feel all that comfortable to begin with. There was previous guests hair on the bedspreads and in the bathroom. It was pretty disgusting. There was mildew or mold in the shower. There was hair and some other unidentifiable mess on the inside of the toilet lid. I cleaned it up with some Clorox wipes!! You could hear upstairs neighbors walking all the time. Louder volume on the tv was an easy fix. They did not serve breakfast nor was there a swimming pool. Will never stay here again or any other suites place!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r484590904-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>484590904</t>
+  </si>
+  <si>
+    <t>05/16/2017</t>
+  </si>
+  <si>
+    <t>Warm friendly staff</t>
+  </si>
+  <si>
+    <t>We stayed there to visit the Houston Space Center.  Staff was very friendly, particularly Veronica on the front desk.  Room was very clean and hotel was a good location.  Veronica pointed us in the direction of the Kemal Boardwalk, for dinner, which was a great suggestion.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded May 18, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 18, 2017</t>
+  </si>
+  <si>
+    <t>We stayed there to visit the Houston Space Center.  Staff was very friendly, particularly Veronica on the front desk.  Room was very clean and hotel was a good location.  Veronica pointed us in the direction of the Kemal Boardwalk, for dinner, which was a great suggestion.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r472907652-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>472907652</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>Great staff, clean rooms, and quiet. Love that they have smoking rooms.I have recommended it several times. I stay once or twice a week. If I wait too long to book a room they always work hard to notify me if a room becomes available.MoreShow less</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded April 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 8, 2017</t>
+  </si>
+  <si>
+    <t>Great staff, clean rooms, and quiet. Love that they have smoking rooms.I have recommended it several times. I stay once or twice a week. If I wait too long to book a room they always work hard to notify me if a room becomes available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r451486073-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>451486073</t>
+  </si>
+  <si>
+    <t>01/12/2017</t>
+  </si>
+  <si>
+    <t>Clean, safe,good staff</t>
+  </si>
+  <si>
+    <t>This motel is similar to an extended stay. Rooms are clean, comfortable and have full kitchens. Rate is much better then local chains, and has better reviews.     The major difference in this motel, compared to extended stay, is your kitchen  is empty. At extended stay, you give them a list of what you need, coffee maker ect. They bring it to your room no charge. This hotel makes you buy everything you need. Most people do not want to carry a kitchen with them when they leave. Non the less even if your just looking for a room, it's a good deal and has an excellent staff. Would stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Ely A, General Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded January 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2017</t>
+  </si>
+  <si>
+    <t>This motel is similar to an extended stay. Rooms are clean, comfortable and have full kitchens. Rate is much better then local chains, and has better reviews.     The major difference in this motel, compared to extended stay, is your kitchen  is empty. At extended stay, you give them a list of what you need, coffee maker ect. They bring it to your room no charge. This hotel makes you buy everything you need. Most people do not want to carry a kitchen with them when they leave. Non the less even if your just looking for a room, it's a good deal and has an excellent staff. Would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r413327387-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>413327387</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Perfect Stay, Amazing Staff.</t>
+  </si>
+  <si>
+    <t>Amazing Staff and conveniently located near many shops and restaurants. There's a 24 hour Kroger just across the street, a 24 hour Denny's and 24 hour Jack in the Box in the same Kroger parking lot (for those of us that need a midnight snack!).The room we had was very clean, with 2 full size beds, kitchenette with a full sized refrigerator, a cute table with 2 chairs to eat at, and a decent sized TV that could rotate to be seen from anywhere in the room. The beds were some of the most comfortable hotel beds I have slept on (and i travel A LOT).The reception desk was very helpful and the hotel was nice and quiet. We were given plenty of extra towels when requested and best of all they do not have maids knocking on the door Every Single Morning waking us up!! (I am not a morning person, I HATE that!) I will definitely stay here again on my next visit and recommend it to other family members.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded September 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2016</t>
+  </si>
+  <si>
+    <t>Amazing Staff and conveniently located near many shops and restaurants. There's a 24 hour Kroger just across the street, a 24 hour Denny's and 24 hour Jack in the Box in the same Kroger parking lot (for those of us that need a midnight snack!).The room we had was very clean, with 2 full size beds, kitchenette with a full sized refrigerator, a cute table with 2 chairs to eat at, and a decent sized TV that could rotate to be seen from anywhere in the room. The beds were some of the most comfortable hotel beds I have slept on (and i travel A LOT).The reception desk was very helpful and the hotel was nice and quiet. We were given plenty of extra towels when requested and best of all they do not have maids knocking on the door Every Single Morning waking us up!! (I am not a morning person, I HATE that!) I will definitely stay here again on my next visit and recommend it to other family members.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r401463351-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>401463351</t>
+  </si>
+  <si>
+    <t>08/04/2016</t>
+  </si>
+  <si>
+    <t>Refreshing</t>
+  </si>
+  <si>
+    <t>Clean and comfortable. I must say the customer service at this hotel was awsome they even offered coupons for Kemah Board walk. I had to personally thank them for being so great and honoring my coupon for the stayThank youMoreShow less</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2016</t>
+  </si>
+  <si>
+    <t>Clean and comfortable. I must say the customer service at this hotel was awsome they even offered coupons for Kemah Board walk. I had to personally thank them for being so great and honoring my coupon for the stayThank youMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r399620383-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>399620383</t>
+  </si>
+  <si>
+    <t>07/31/2016</t>
+  </si>
+  <si>
+    <t>Industrial worker.</t>
+  </si>
+  <si>
+    <t>I Hello , I recomend this Hotel because I stayed from July 2015 to July 2016 , and I didn't have any problem at all , good services , and friendly people , You walk to Kroger Supermarket , Taco Bell , KFC , Waffle house , Dennis , Asian , Italian , and Mexican food , seven miles to Bay town , and one mile to the beach.You'll be in a good , quiet ,and safe place.Thanks to Value place Hotel in LA Porte TX for all your attention. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>I Hello , I recomend this Hotel because I stayed from July 2015 to July 2016 , and I didn't have any problem at all , good services , and friendly people , You walk to Kroger Supermarket , Taco Bell , KFC , Waffle house , Dennis , Asian , Italian , and Mexican food , seven miles to Bay town , and one mile to the beach.You'll be in a good , quiet ,and safe place.Thanks to Value place Hotel in LA Porte TX for all your attention. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r368558880-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>368558880</t>
+  </si>
+  <si>
+    <t>04/28/2016</t>
+  </si>
+  <si>
+    <t>An awesome home away from home!!!!</t>
+  </si>
+  <si>
+    <t>My fiance travels the majority of the year due to work therefore I have stayed in several hotels. I am a very honest person and I am here to tell you that Value Place located in La Porte, Texas is by far an excellent home away from home! I have stayed at several hotels that were completely disgusting and very unsanitary.  Value Place here in La Porte, Texas on the other hand is most definitely the cleanest I have stayed in. Not only is the cleanliness great but so is the complete staff! I have called the front desk on several different occasions for things I needed such as iron, ironing board, etc. And I never once had a single problem with any type of attitude. All I ever got from them was what I requested and complete kindness and professionalism. So if you need a place to stay at while visiting LA Porte, Texas and are on a low budget you certainly will enjoy your stay here and that's a promise!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Ely A, General Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded May 2, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2016</t>
+  </si>
+  <si>
+    <t>My fiance travels the majority of the year due to work therefore I have stayed in several hotels. I am a very honest person and I am here to tell you that Value Place located in La Porte, Texas is by far an excellent home away from home! I have stayed at several hotels that were completely disgusting and very unsanitary.  Value Place here in La Porte, Texas on the other hand is most definitely the cleanest I have stayed in. Not only is the cleanliness great but so is the complete staff! I have called the front desk on several different occasions for things I needed such as iron, ironing board, etc. And I never once had a single problem with any type of attitude. All I ever got from them was what I requested and complete kindness and professionalism. So if you need a place to stay at while visiting LA Porte, Texas and are on a low budget you certainly will enjoy your stay here and that's a promise!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r352669350-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>352669350</t>
+  </si>
+  <si>
+    <t>03/03/2016</t>
+  </si>
+  <si>
+    <t>Great Experience</t>
+  </si>
+  <si>
+    <t>I had just come off a long job and headed to another. I am from the La Porte area and I found myself with no decent place to live.  I checked into Value Place and my children followed behind.  The rooms were nice and neat.  The outside and inside stayed cleaned each day of my visit.  The staff were always willing to help, and kept my room cleaned.  Any day I asked for clean linens or towels all I had to do was call the front desk.  My overall experience was great while I transitioned into my new home.  Thank You Value Place and Management.  You guys Rock!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Ely A, General Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded May 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 5, 2016</t>
+  </si>
+  <si>
+    <t>I had just come off a long job and headed to another. I am from the La Porte area and I found myself with no decent place to live.  I checked into Value Place and my children followed behind.  The rooms were nice and neat.  The outside and inside stayed cleaned each day of my visit.  The staff were always willing to help, and kept my room cleaned.  Any day I asked for clean linens or towels all I had to do was call the front desk.  My overall experience was great while I transitioned into my new home.  Thank You Value Place and Management.  You guys Rock!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r345964756-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>345964756</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Great place for a working man</t>
+  </si>
+  <si>
+    <t>Is this is the start of my third week here. It has been a normal working atmosphere. The rooms are kind of small, with a 2 burner stove, and a full size refrigerator it makes things feel more home. The rates could be better, but living on the road for 24 years, I have come to expect, you get what you pay for.MoreShow less</t>
+  </si>
+  <si>
+    <t>Is this is the start of my third week here. It has been a normal working atmosphere. The rooms are kind of small, with a 2 burner stove, and a full size refrigerator it makes things feel more home. The rates could be better, but living on the road for 24 years, I have come to expect, you get what you pay for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r323020952-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>323020952</t>
+  </si>
+  <si>
+    <t>10/29/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel Service</t>
+  </si>
+  <si>
+    <t>Been here for a month and they have treated me well with good service and also good people. Elizabeth she's on front desk ; she always in a good mood and always gives you a key for room when I loose mine with out making bad faces like in other hotels. I recommend Value Place if you want a nice place...</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r321232113-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>321232113</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">From the time of check in to the time of checkout everything was great. Becky helped us with our check in with a friendly and wonderful attitude. She was very efficient and even gave us some great tips to visit to make our stay even more enjoyable. Definitely will be back. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r302677892-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>302677892</t>
+  </si>
+  <si>
+    <t>08/23/2015</t>
+  </si>
+  <si>
+    <t>Decent for the price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here for one night only. Checkin/checkout was fast. There was a lot of men staying here  for work purposes, but we didn't mind since we just wanted  a place to sleep at night. The only thing I had a small issue with was the smell of the room. It wasn't horrible but it smelled like it had been dampened and closed in. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r282771100-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>282771100</t>
+  </si>
+  <si>
+    <t>06/24/2015</t>
+  </si>
+  <si>
+    <t>Everything I could have asked for! We felt safe and it was very affordable</t>
+  </si>
+  <si>
+    <t>As soon as we checked in, we were greeted by the Assistant manager.  She took the time to take us on a tour, instantly pointed out all the security features plus having staff that live there on property along with a great price , we checked in and the whole staff took care of our needs.. definitely going back next time we visit LA Porte..</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r282673088-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>282673088</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>Myself and my crew of 8 workers were stuck in a dump across the ship channel. We contacted Value Place who jumped through hoops to ready rooms for us and get us into the hotel even though they were at near capacity. The rooms are clean, comfortable with kitchenette for those of us that live life on the road and like some home cooking. The staff is extremely friendly and helpful. The hotel is quiet allowing nightshift workers complete rest during the day. The security of the property is extremely good. I highly recommend these folks when you need a long term stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r281417167-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>281417167</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>the value place is a great place to stay with a friendly staff who knows your name and you're not just another customer. Its very secure so you feel safe. They really make you feel like you're home away from home.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r250375212-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>250375212</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>Frequent flyers</t>
+  </si>
+  <si>
+    <t>We stay here a lot, in fact, several times a year and we like staying here for several reasons. We are refinery workers and they are located centrally in the Houston area, so they are close and convenient. Rooms are adequate for our needs, price is decent and rooms are clean. We try to stay on the first floor as the elevator is slow, but the best reason to stay is the customer service. Annie and Eli are always there and friendly and personable. At times we come to check in really late and they always take care of us, no matter the time. If you have any needs, they are quick to take care of you!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Sean A, Owner at WoodSpring Suites Houston La Porte, responded to this reviewResponded February 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2015</t>
+  </si>
+  <si>
+    <t>We stay here a lot, in fact, several times a year and we like staying here for several reasons. We are refinery workers and they are located centrally in the Houston area, so they are close and convenient. Rooms are adequate for our needs, price is decent and rooms are clean. We try to stay on the first floor as the elevator is slow, but the best reason to stay is the customer service. Annie and Eli are always there and friendly and personable. At times we come to check in really late and they always take care of us, no matter the time. If you have any needs, they are quick to take care of you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r235459783-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>235459783</t>
+  </si>
+  <si>
+    <t>10/20/2014</t>
+  </si>
+  <si>
+    <t>Stay anywhere but here.</t>
+  </si>
+  <si>
+    <t>I've been staying at this place for a couple months while working in the area. I would move out if I wasn't working 91 hours a week on night shift. The elevator has been out for days, they are constantly barging into your room. I sleep during the days and they come wanting to look at your room a couple days a week. I told them I was a day sleeper and the manager, Ely, basically told us he would continue to enter our rooms while we tried to sleep. Today is 10-20. If you don't believe me go there today and read the nasty letters on everyone's door. Do yourself a favor and stay anywhere but here. Candlewood, holiday inn, motel 6, and a cardboard box under the interstate would be better.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've been staying at this place for a couple months while working in the area. I would move out if I wasn't working 91 hours a week on night shift. The elevator has been out for days, they are constantly barging into your room. I sleep during the days and they come wanting to look at your room a couple days a week. I told them I was a day sleeper and the manager, Ely, basically told us he would continue to enter our rooms while we tried to sleep. Today is 10-20. If you don't believe me go there today and read the nasty letters on everyone's door. Do yourself a favor and stay anywhere but here. Candlewood, holiday inn, motel 6, and a cardboard box under the interstate would be better.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r197853439-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>197853439</t>
+  </si>
+  <si>
+    <t>03/18/2014</t>
+  </si>
+  <si>
+    <t>Driver</t>
+  </si>
+  <si>
+    <t>I was able to get a room at the last minute. Jermaine Banks was on duty that day. He was very helpful,knowledgeable and professional. The property was very clean inside and out. The rooms and property have been taken care of very well.  There is a Kroger grocery store right next door. Very convenient and clean there also. There also some restaurant close by as well. Mr. Banks showed me my room and around the property before I decided to stay here. Great place to stay and just minutes away from all major interstates.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r194569283-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>194569283</t>
+  </si>
+  <si>
+    <t>02/18/2014</t>
+  </si>
+  <si>
+    <t>Wonderful Time</t>
+  </si>
+  <si>
+    <t>You could not ask for a better staff than at the Value Place in La Porte, Texas.  Being confined to a wheelchair you would think things would be limited. Not at the Value Place, they are at the top of there game for handy crap accessibility. And any time you need anything day or night they are right their. I had got stuck in the shower and poor John was right there in a flash. His a very good maintenance man. He keeps the place ticking.  And Kelly goes way beyond being just an employee. I could not get to the store because it was raining. So she went when she got off. She really is a great employee. Besides having a pretty smile. She just brightens your day. Kelly and John are just a few. You have Jermaine, Andrea, and Stephanie. They are all hard worker's. I will be glad to recommend Value Place to all my friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>You could not ask for a better staff than at the Value Place in La Porte, Texas.  Being confined to a wheelchair you would think things would be limited. Not at the Value Place, they are at the top of there game for handy crap accessibility. And any time you need anything day or night they are right their. I had got stuck in the shower and poor John was right there in a flash. His a very good maintenance man. He keeps the place ticking.  And Kelly goes way beyond being just an employee. I could not get to the store because it was raining. So she went when she got off. She really is a great employee. Besides having a pretty smile. She just brightens your day. Kelly and John are just a few. You have Jermaine, Andrea, and Stephanie. They are all hard worker's. I will be glad to recommend Value Place to all my friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r194449184-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>194449184</t>
+  </si>
+  <si>
+    <t>02/17/2014</t>
+  </si>
+  <si>
+    <t>The best in the area!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'm not a big hotel fan of any sorts but I was very, very pleased with value place in la porte. The hotel was extremely clean and the customer service was outstanding.  Kelly will greet you with a smile everyday and genuinely seem to care how I'm doing. Other employees like John has gone out of his way to be helpful and always has been very nice. This hotel has a wonderful concept of how to run a great buisness. I like the fact that all the rooms have kitchens and everything is optional here. If you dont need it you dont pay for it. </t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r194008729-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>194008729</t>
+  </si>
+  <si>
+    <t>02/13/2014</t>
+  </si>
+  <si>
+    <t>We won't be back!</t>
+  </si>
+  <si>
+    <t>The elevator was messed up everyday, one employes thought it was funny, stating "Merry Christmas" It's not funny to climb four stories after working 12 hour days, especially everyday. We had to carry all our stuff up four flights of stairs! One employee could only tell me how the boss would only buy the "cheapest stuff" for the motel. Every time you would see him he was complaining. Didn't smell like he had a bath in days. The heat didn't work in our room. When I went to the front desk to get clean towels he stated "I don't guess I'm gonna get to eat anytime soon with people coming to the desk". He brought me back a basket of wadded up towels and stated "that's how you get them, sorry but I have to eat too you know". We checked out and moved to a better motel.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeff H, Area Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded February 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2014</t>
+  </si>
+  <si>
+    <t>The elevator was messed up everyday, one employes thought it was funny, stating "Merry Christmas" It's not funny to climb four stories after working 12 hour days, especially everyday. We had to carry all our stuff up four flights of stairs! One employee could only tell me how the boss would only buy the "cheapest stuff" for the motel. Every time you would see him he was complaining. Didn't smell like he had a bath in days. The heat didn't work in our room. When I went to the front desk to get clean towels he stated "I don't guess I'm gonna get to eat anytime soon with people coming to the desk". He brought me back a basket of wadded up towels and stated "that's how you get them, sorry but I have to eat too you know". We checked out and moved to a better motel.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r193292929-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>193292929</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>Home away from Home</t>
+  </si>
+  <si>
+    <t>We recently sold our home and are preparing to build a new home.  We decided to stay at Value Place until things were ready. Staff are all friendly (Jermaine and Kelly)  Housekeepers are great and so are maintenance guys. The suite was clean and welcoming.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r193205182-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>193205182</t>
+  </si>
+  <si>
+    <t>02/05/2014</t>
+  </si>
+  <si>
+    <t>Customer service rocks!</t>
+  </si>
+  <si>
+    <t>Checkin process a+ thanks to a lovely lady named Kelly. She made the experience sooooooooo nice and she was so friendly. You can tell the staff here loves their guest. All of them from John in maintenance, Andrea and Stephanie in cleaning and Brandon at nights. They work great as a team here. I'd stay here anytime over any other place in town.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r192584269-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>192584269</t>
+  </si>
+  <si>
+    <t>01/30/2014</t>
+  </si>
+  <si>
+    <t>Great staff</t>
+  </si>
+  <si>
+    <t>My husband and I had the pleasure of staying here for one week. The staff here with extremely friendly and helpful. Jermaine, Kelly and John went out of their way to make sure we were comfortable and had everything we needed. We would have stayed here longer but we had to move closer to my husband's job.MoreShow less</t>
+  </si>
+  <si>
+    <t>Jeff H, Area Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded January 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I had the pleasure of staying here for one week. The staff here with extremely friendly and helpful. Jermaine, Kelly and John went out of their way to make sure we were comfortable and had everything we needed. We would have stayed here longer but we had to move closer to my husband's job.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r192487204-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>192487204</t>
+  </si>
+  <si>
+    <t>01/29/2014</t>
+  </si>
+  <si>
+    <t>Love Value Place In La Porte Texas</t>
+  </si>
+  <si>
+    <t>I must say that Im very pleased with my stay here. Jermaine and Kelly has been very attentive to all my needs, I recent stayed in Texas City location which was great but I can say being here the staff goes far and beyond to make me feel right at home. I can honestly say I wouldn't want stay any where else but here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r155197614-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>155197614</t>
+  </si>
+  <si>
+    <t>03/20/2013</t>
+  </si>
+  <si>
+    <t>Very nice staff!</t>
+  </si>
+  <si>
+    <t>Let me start off by saying the front desk was very friendly. The rooms we spacious and clean. Its a good place to stay with family or for work. The bathrooms were clean. All but one of the staff members were friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded March 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2013</t>
+  </si>
+  <si>
+    <t>Let me start off by saying the front desk was very friendly. The rooms we spacious and clean. Its a good place to stay with family or for work. The bathrooms were clean. All but one of the staff members were friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r151273019-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>151273019</t>
+  </si>
+  <si>
+    <t>02/02/2013</t>
+  </si>
+  <si>
+    <t>Extremely ideal for extended stay guests needing a home-like-setup that is safe, low key &amp; friendly w/ a lot of convenience in &amp;</t>
+  </si>
+  <si>
+    <t>This hotel provides a clean, safe atmosphere which is easy to settle into, especially for a long stay, with ample space, amenities and a very friendly staff making your stay here very easy and home-like.It is conveniently located next to 2 small shopping strips offering groceries, banking, restaurants, breakfast houses, fast food, gas, barber/beauty shop, and a few small shops. Also, blocks from a large post office, pharmacy, laundry services, and a very lovely park on the water. *But the traffic is not bad, the hotel is easy to get in and out of and parking is never a hassle. The lot is very well lit, I've always felt my cars &amp; family were safe at all times.The two main things I like most is: the safety (u must use a key card to enter into the bldg and areas like the wash room; and no rowdy or shady ppl are ever around or in the bldg) and the other main thing is the very helpful, friendly and accommodating staff!The only real complaint or downfall here is the Internet situation, there is no WiFi and I'm not sure what's up with the wired service- may be my own error...MoreShow less</t>
+  </si>
+  <si>
+    <t>Heather L, Guest Relations Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded February 11, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2013</t>
+  </si>
+  <si>
+    <t>This hotel provides a clean, safe atmosphere which is easy to settle into, especially for a long stay, with ample space, amenities and a very friendly staff making your stay here very easy and home-like.It is conveniently located next to 2 small shopping strips offering groceries, banking, restaurants, breakfast houses, fast food, gas, barber/beauty shop, and a few small shops. Also, blocks from a large post office, pharmacy, laundry services, and a very lovely park on the water. *But the traffic is not bad, the hotel is easy to get in and out of and parking is never a hassle. The lot is very well lit, I've always felt my cars &amp; family were safe at all times.The two main things I like most is: the safety (u must use a key card to enter into the bldg and areas like the wash room; and no rowdy or shady ppl are ever around or in the bldg) and the other main thing is the very helpful, friendly and accommodating staff!The only real complaint or downfall here is the Internet situation, there is no WiFi and I'm not sure what's up with the wired service- may be my own error...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r54862957-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>54862957</t>
+  </si>
+  <si>
+    <t>01/31/2010</t>
+  </si>
+  <si>
+    <t>Will pay more for another place before I save here again</t>
+  </si>
+  <si>
+    <t>I work on the road and stay in many hotels, and this is by far the worst experience I've had.  You have to pay extra for EVERYTHING.  The internet is said to be free yet they try to charge $10 a week, and the speed is only mediocre.  The hot water tends to run out from 7 p.m to 9 p.m, you can't find hotel staff when you need them, the hours at the desk vary according to their mood, they only come once every 2 weeks to clean the room unless you wanna pay extra for housekeeping, they will not get your garbage and though the deal seems sweet, pay more and stay at the La Quinta!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2010</t>
+  </si>
+  <si>
+    <t>I work on the road and stay in many hotels, and this is by far the worst experience I've had.  You have to pay extra for EVERYTHING.  The internet is said to be free yet they try to charge $10 a week, and the speed is only mediocre.  The hot water tends to run out from 7 p.m to 9 p.m, you can't find hotel staff when you need them, the hours at the desk vary according to their mood, they only come once every 2 weeks to clean the room unless you wanna pay extra for housekeeping, they will not get your garbage and though the deal seems sweet, pay more and stay at the La Quinta!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r47284468-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>47284468</t>
+  </si>
+  <si>
+    <t>10/19/2009</t>
+  </si>
+  <si>
+    <t>very clean!!!</t>
+  </si>
+  <si>
+    <t>i stayed there for two weeks and I was able to exchange my linnens everyday, the location is close to the freewa. also, they had security cameras in all hallways, nice and safe!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>Heather L, Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded July 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2012</t>
+  </si>
+  <si>
+    <t>i stayed there for two weeks and I was able to exchange my linnens everyday, the location is close to the freewa. also, they had security cameras in all hallways, nice and safe!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r37093422-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>37093422</t>
+  </si>
+  <si>
+    <t>08/08/2009</t>
+  </si>
+  <si>
+    <t>RIP OFF</t>
+  </si>
+  <si>
+    <t>This place is a total rip off. To many hidin costs such as dishes, deposits(as if you want to steal from this cheap made dump) they charge you extra for linens,internet, you name they proably charge for it. Employs in rooms while your not there and they aren't cleaning or taking out trash( count your cigs. and other things). Go to candlewood across street very nice worth the extra cost.</t>
+  </si>
+  <si>
+    <t>August 2009</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1357,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1389,2341 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s"/>
+      <c r="O4" t="s"/>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>97</v>
+      </c>
+      <c r="X7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>115</v>
+      </c>
+      <c r="X9" t="s">
+        <v>116</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>120</v>
+      </c>
+      <c r="K10" t="s">
+        <v>121</v>
+      </c>
+      <c r="L10" t="s">
+        <v>122</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>123</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>124</v>
+      </c>
+      <c r="X10" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>127</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>128</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L11" t="s">
+        <v>131</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>132</v>
+      </c>
+      <c r="O11" t="s">
+        <v>96</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>133</v>
+      </c>
+      <c r="X11" t="s">
+        <v>134</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J12" t="s">
+        <v>138</v>
+      </c>
+      <c r="K12" t="s">
+        <v>139</v>
+      </c>
+      <c r="L12" t="s">
+        <v>140</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>132</v>
+      </c>
+      <c r="O12" t="s">
+        <v>52</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>141</v>
+      </c>
+      <c r="X12" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>145</v>
+      </c>
+      <c r="J13" t="s">
+        <v>146</v>
+      </c>
+      <c r="K13" t="s">
+        <v>147</v>
+      </c>
+      <c r="L13" t="s">
+        <v>148</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>149</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>151</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>152</v>
+      </c>
+      <c r="J14" t="s">
+        <v>153</v>
+      </c>
+      <c r="K14" t="s">
+        <v>154</v>
+      </c>
+      <c r="L14" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>156</v>
+      </c>
+      <c r="O14" t="s">
+        <v>96</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>157</v>
+      </c>
+      <c r="X14" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>165</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>166</v>
+      </c>
+      <c r="X15" t="s">
+        <v>167</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+      <c r="J16" t="s">
+        <v>171</v>
+      </c>
+      <c r="K16" t="s">
+        <v>172</v>
+      </c>
+      <c r="L16" t="s">
+        <v>173</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>157</v>
+      </c>
+      <c r="X16" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>180</v>
+      </c>
+      <c r="O17" t="s">
+        <v>181</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>182</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>183</v>
+      </c>
+      <c r="J18" t="s">
+        <v>184</v>
+      </c>
+      <c r="K18" t="s">
+        <v>185</v>
+      </c>
+      <c r="L18" t="s">
+        <v>186</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>180</v>
+      </c>
+      <c r="O18" t="s">
+        <v>181</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s">
+        <v>191</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>192</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>193</v>
+      </c>
+      <c r="J20" t="s">
+        <v>194</v>
+      </c>
+      <c r="K20" t="s">
+        <v>195</v>
+      </c>
+      <c r="L20" t="s">
+        <v>196</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>197</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>199</v>
+      </c>
+      <c r="J21" t="s">
+        <v>194</v>
+      </c>
+      <c r="K21" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" t="s">
+        <v>201</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>197</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>203</v>
+      </c>
+      <c r="J22" t="s">
+        <v>204</v>
+      </c>
+      <c r="K22" t="s">
+        <v>185</v>
+      </c>
+      <c r="L22" t="s">
+        <v>205</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>197</v>
+      </c>
+      <c r="O22" t="s">
+        <v>96</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>207</v>
+      </c>
+      <c r="J23" t="s">
+        <v>208</v>
+      </c>
+      <c r="K23" t="s">
+        <v>209</v>
+      </c>
+      <c r="L23" t="s">
+        <v>210</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>211</v>
+      </c>
+      <c r="O23" t="s">
+        <v>52</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>212</v>
+      </c>
+      <c r="X23" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>215</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>216</v>
+      </c>
+      <c r="J24" t="s">
+        <v>217</v>
+      </c>
+      <c r="K24" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" t="s">
+        <v>219</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s"/>
+      <c r="O24" t="s"/>
+      <c r="P24" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>4</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>221</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>222</v>
+      </c>
+      <c r="J25" t="s">
+        <v>223</v>
+      </c>
+      <c r="K25" t="s">
+        <v>224</v>
+      </c>
+      <c r="L25" t="s">
+        <v>225</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O25" t="s">
+        <v>52</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>228</v>
+      </c>
+      <c r="J26" t="s">
+        <v>229</v>
+      </c>
+      <c r="K26" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" t="s">
+        <v>231</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>232</v>
+      </c>
+      <c r="O26" t="s">
+        <v>233</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>235</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>236</v>
+      </c>
+      <c r="J27" t="s">
+        <v>237</v>
+      </c>
+      <c r="K27" t="s">
+        <v>238</v>
+      </c>
+      <c r="L27" t="s">
+        <v>239</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>240</v>
+      </c>
+      <c r="O27" t="s">
+        <v>181</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>241</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>242</v>
+      </c>
+      <c r="J28" t="s">
+        <v>243</v>
+      </c>
+      <c r="K28" t="s">
+        <v>244</v>
+      </c>
+      <c r="L28" t="s">
+        <v>245</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s"/>
+      <c r="O28" t="s"/>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1</v>
+      </c>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="n">
+        <v>2</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>246</v>
+      </c>
+      <c r="X28" t="s">
+        <v>247</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>249</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>250</v>
+      </c>
+      <c r="J29" t="s">
+        <v>251</v>
+      </c>
+      <c r="K29" t="s">
+        <v>252</v>
+      </c>
+      <c r="L29" t="s">
+        <v>253</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>254</v>
+      </c>
+      <c r="O29" t="s">
+        <v>96</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>4</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>255</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>256</v>
+      </c>
+      <c r="J30" t="s">
+        <v>257</v>
+      </c>
+      <c r="K30" t="s">
+        <v>258</v>
+      </c>
+      <c r="L30" t="s">
+        <v>259</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>260</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>261</v>
+      </c>
+      <c r="J31" t="s">
+        <v>262</v>
+      </c>
+      <c r="K31" t="s">
+        <v>263</v>
+      </c>
+      <c r="L31" t="s">
+        <v>264</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>254</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>265</v>
+      </c>
+      <c r="X31" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>268</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>269</v>
+      </c>
+      <c r="J32" t="s">
+        <v>270</v>
+      </c>
+      <c r="K32" t="s">
+        <v>271</v>
+      </c>
+      <c r="L32" t="s">
+        <v>272</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>254</v>
+      </c>
+      <c r="O32" t="s">
+        <v>181</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>273</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>274</v>
+      </c>
+      <c r="J33" t="s">
+        <v>275</v>
+      </c>
+      <c r="K33" t="s">
+        <v>276</v>
+      </c>
+      <c r="L33" t="s">
+        <v>277</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>278</v>
+      </c>
+      <c r="O33" t="s">
+        <v>96</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>279</v>
+      </c>
+      <c r="X33" t="s">
+        <v>280</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>282</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>283</v>
+      </c>
+      <c r="J34" t="s">
+        <v>284</v>
+      </c>
+      <c r="K34" t="s">
+        <v>285</v>
+      </c>
+      <c r="L34" t="s">
+        <v>286</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s"/>
+      <c r="O34" t="s"/>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>287</v>
+      </c>
+      <c r="X34" t="s">
+        <v>288</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>290</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>291</v>
+      </c>
+      <c r="J35" t="s">
+        <v>292</v>
+      </c>
+      <c r="K35" t="s">
+        <v>293</v>
+      </c>
+      <c r="L35" t="s">
+        <v>294</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>295</v>
+      </c>
+      <c r="O35" t="s">
+        <v>52</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>297</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>298</v>
+      </c>
+      <c r="J36" t="s">
+        <v>299</v>
+      </c>
+      <c r="K36" t="s">
+        <v>300</v>
+      </c>
+      <c r="L36" t="s">
+        <v>301</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>302</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>303</v>
+      </c>
+      <c r="X36" t="s">
+        <v>304</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>306</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>307</v>
+      </c>
+      <c r="J37" t="s">
+        <v>308</v>
+      </c>
+      <c r="K37" t="s">
+        <v>309</v>
+      </c>
+      <c r="L37" t="s">
+        <v>310</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>311</v>
+      </c>
+      <c r="O37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>310</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_679.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_679.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,75 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r588440865-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>56110</t>
+  </si>
+  <si>
+    <t>729624</t>
+  </si>
+  <si>
+    <t>588440865</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Perfect customer service</t>
+  </si>
+  <si>
+    <t>Dealing with Ashli (general manager) is a pleasure.  I have never had such an amazing and just perfect customer service from anyone in all the hotels that we stayed in the past as We did with Ashli.  Your company is very lucky to have her working for you.  Like I told her she can go to any 5 star hotels and they will hire her on the spot.   We have stayed in 5 star hotels and never had been treated with the respect and friendliness as we have wit( her.  What we love about her is that she is always happy and willing to go the extra mile to help us.  Hope she is been treated with the respect that she deserves.  Again, your company is very lucky to have her on your team.  Regards,Roberto BatlleMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2018</t>
+  </si>
+  <si>
+    <t>Dealing with Ashli (general manager) is a pleasure.  I have never had such an amazing and just perfect customer service from anyone in all the hotels that we stayed in the past as We did with Ashli.  Your company is very lucky to have her working for you.  Like I told her she can go to any 5 star hotels and they will hire her on the spot.   We have stayed in 5 star hotels and never had been treated with the respect and friendliness as we have wit( her.  What we love about her is that she is always happy and willing to go the extra mile to help us.  Hope she is been treated with the respect that she deserves.  Again, your company is very lucky to have her on your team.  Regards,Roberto BatlleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r568551727-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>568551727</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Family Vacation </t>
+  </si>
+  <si>
+    <t>Fabulous stay.Our room was incredibly clean (even the corners and cracks of the bathroom were spotless), comfortable, restful, and quiet. Personable and professional staff rounded out our last minute stop in La Porte. We would definitely stay here again. We would stay here again.  MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2018</t>
+  </si>
+  <si>
+    <t>Fabulous stay.Our room was incredibly clean (even the corners and cracks of the bathroom were spotless), comfortable, restful, and quiet. Personable and professional staff rounded out our last minute stop in La Porte. We would definitely stay here again. We would stay here again.  More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r561382666-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
-    <t>56110</t>
-  </si>
-  <si>
-    <t>729624</t>
-  </si>
-  <si>
     <t>561382666</t>
   </si>
   <si>
@@ -235,6 +292,63 @@
   </si>
   <si>
     <t>Staff is / was nice and helpful - check in / check out was a breeze. Good staff.Good overall stay, room was comfortable and located in a good area - no issues and etc - low key type of property and would stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r544232889-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>544232889</t>
+  </si>
+  <si>
+    <t>11/30/2017</t>
+  </si>
+  <si>
+    <t>Clean, Simple, Comfortable - Perfect !!!</t>
+  </si>
+  <si>
+    <t>We were displaced by Hurricane Harvey when our home was flooded.  After bouncing around to a few homes, we looked for a room in an extended stay hotel.  We found a 2-bed room at the WoodSpring Suites in La Porte, Texas.  Given the very reasonable nightly and weekly rate, we weren't sure what the accommodations would be like.  Our experience was simply perfect.  Both Ely and Ashli, at the front desk and as managers, could not have been more helpful, courteous, and professional.  Thank God this hotel is pet-friendly, and has a nice area outside to walk the dogs, complete with plastic bag dispenser and a trash can so every can clean up the messes.  The rooms were very simple, but were perfect in terms of everything we needed to include a full-sized refrigerator, kitchen stove, microwave, comfortable beds, and area to hang clothes in the corner.  The in-house washing machines and dryers were so convenient.  Our life has been too chaotic for 3+ months; but the 3 weeks we spent at this WoodSpring Suites was a breath of fresh air.  It's also helpful this hotel is conveniently located with a Kroger Market store, fast food restaurants, and barber/stylist all within walking distance.  Thank you Ely and Ashli, and to your entire staff.  You have no idea how much we needed the comfort and stability your hotel provided us.  Kevin &amp; MaryMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded December 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2017</t>
+  </si>
+  <si>
+    <t>We were displaced by Hurricane Harvey when our home was flooded.  After bouncing around to a few homes, we looked for a room in an extended stay hotel.  We found a 2-bed room at the WoodSpring Suites in La Porte, Texas.  Given the very reasonable nightly and weekly rate, we weren't sure what the accommodations would be like.  Our experience was simply perfect.  Both Ely and Ashli, at the front desk and as managers, could not have been more helpful, courteous, and professional.  Thank God this hotel is pet-friendly, and has a nice area outside to walk the dogs, complete with plastic bag dispenser and a trash can so every can clean up the messes.  The rooms were very simple, but were perfect in terms of everything we needed to include a full-sized refrigerator, kitchen stove, microwave, comfortable beds, and area to hang clothes in the corner.  The in-house washing machines and dryers were so convenient.  Our life has been too chaotic for 3+ months; but the 3 weeks we spent at this WoodSpring Suites was a breath of fresh air.  It's also helpful this hotel is conveniently located with a Kroger Market store, fast food restaurants, and barber/stylist all within walking distance.  Thank you Ely and Ashli, and to your entire staff.  You have no idea how much we needed the comfort and stability your hotel provided us.  Kevin &amp; MaryMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r531729057-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>531729057</t>
+  </si>
+  <si>
+    <t>10/10/2017</t>
+  </si>
+  <si>
+    <t>Very nice place</t>
+  </si>
+  <si>
+    <t>I am currently staying at WoodSpring Suites. I have been here 1 week so far. It is quite, and very clean. The staff are very personable. I was also impressed with the surrounding area. I have a Krogers next door, a Taco Bell and KFC next door and I can get a sit down breakfast across the street. The shopping center next door offers a variety of stores. I could leave for somewhere closer to my home that is being renovated, but the experience is so enjoyable the extra miles are worth it. I recommend them highly.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded October 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 12, 2017</t>
+  </si>
+  <si>
+    <t>I am currently staying at WoodSpring Suites. I have been here 1 week so far. It is quite, and very clean. The staff are very personable. I was also impressed with the surrounding area. I have a Krogers next door, a Taco Bell and KFC next door and I can get a sit down breakfast across the street. The shopping center next door offers a variety of stores. I could leave for somewhere closer to my home that is being renovated, but the experience is so enjoyable the extra miles are worth it. I recommend them highly.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r529209694-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
@@ -312,9 +426,6 @@
 The smoke alarm went off in the middle of our nap on Saturday and scared me terribly as I didn't feel all...Guys standing right by the entrance smoking a cigarette. So disrespectful to those that do not smoke and a sign clearly visible to be so many feet from the entrance. Walked in the very small lobby and it stunk so badly. Used a room key to get past the lobby and the smell was worse. The elevator took a very long time to get to the 2nd floor all weekend long. Our room had a very bad odor and we picked up some room spray at the local Walmart. There were three guests registered but only 2 towels, 2 washcloths and 1 bath mat. I went to the very expensive laundry room to wash the towels, etc and asked for more at the front desk (2 to be exact). It cost $2 to wash and dry each.... I did like the fact that you could use your debit card or credit card (and of course quarters) to use the machines.The front desk agent asked for the used linens but I told her I was washing them. As I was handed the towels, I asked about the washcloths and I was told there were inside the towels. Once I got back to our room and looked in the towels, there were only 2 towels and a bath mat. The smoke alarm went off in the middle of our nap on Saturday and scared me terribly as I didn't feel all that comfortable to begin with. There was previous guests hair on the bedspreads and in the bathroom. It was pretty disgusting. There was mildew or mold in the shower. There was hair and some other unidentifiable mess on the inside of the toilet lid. I cleaned it up with some Clorox wipes!! You could hear upstairs neighbors walking all the time. Louder volume on the tv was an easy fix. They did not serve breakfast nor was there a swimming pool. Will never stay here again or any other suites place!! MoreShow less</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded July 29, 2017</t>
   </si>
   <si>
@@ -330,6 +441,57 @@
 The smoke alarm went off in the middle of our nap on Saturday and scared me terribly as I didn't feel all...Guys standing right by the entrance smoking a cigarette. So disrespectful to those that do not smoke and a sign clearly visible to be so many feet from the entrance. Walked in the very small lobby and it stunk so badly. Used a room key to get past the lobby and the smell was worse. The elevator took a very long time to get to the 2nd floor all weekend long. Our room had a very bad odor and we picked up some room spray at the local Walmart. There were three guests registered but only 2 towels, 2 washcloths and 1 bath mat. I went to the very expensive laundry room to wash the towels, etc and asked for more at the front desk (2 to be exact). It cost $2 to wash and dry each.... I did like the fact that you could use your debit card or credit card (and of course quarters) to use the machines.The front desk agent asked for the used linens but I told her I was washing them. As I was handed the towels, I asked about the washcloths and I was told there were inside the towels. Once I got back to our room and looked in the towels, there were only 2 towels and a bath mat. The smoke alarm went off in the middle of our nap on Saturday and scared me terribly as I didn't feel all that comfortable to begin with. There was previous guests hair on the bedspreads and in the bathroom. It was pretty disgusting. There was mildew or mold in the shower. There was hair and some other unidentifiable mess on the inside of the toilet lid. I cleaned it up with some Clorox wipes!! You could hear upstairs neighbors walking all the time. Louder volume on the tv was an easy fix. They did not serve breakfast nor was there a swimming pool. Will never stay here again or any other suites place!! More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r498232699-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>498232699</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>the best service ever</t>
+  </si>
+  <si>
+    <t>Wonderful place, so peaceful, the room was so clean. The location is so convenient with tons of restaurants and supermarkets.The front desk agent Karen was so professional and helpful, definitely I'll be back here for my next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 4, 2017</t>
+  </si>
+  <si>
+    <t>Wonderful place, so peaceful, the room was so clean. The location is so convenient with tons of restaurants and supermarkets.The front desk agent Karen was so professional and helpful, definitely I'll be back here for my next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r497792405-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>497792405</t>
+  </si>
+  <si>
+    <t>07/01/2017</t>
+  </si>
+  <si>
+    <t>Friendly Staff</t>
+  </si>
+  <si>
+    <t>It was not my typical hotel but I wanted a kitchen. Usually from my past experiences the hotel supplies the dinnerware, I was disappointed because this was not the case. If you wanted any you ha to purchase it.  The towels are cheap and you only get one set of pillows on your bed. The price is feasible when your on a budget. If you want save it's deceit enough.  Lastly, there was an annual fire drill weren't told about it so my spouse and I grab some stuff and rushed down the stairs for nothing. We stayed two days and that will be the last. IMoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded July 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2017</t>
+  </si>
+  <si>
+    <t>It was not my typical hotel but I wanted a kitchen. Usually from my past experiences the hotel supplies the dinnerware, I was disappointed because this was not the case. If you wanted any you ha to purchase it.  The towels are cheap and you only get one set of pillows on your bed. The price is feasible when your on a budget. If you want save it's deceit enough.  Lastly, there was an annual fire drill weren't told about it so my spouse and I grab some stuff and rushed down the stairs for nothing. We stayed two days and that will be the last. IMore</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r484590904-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -348,9 +510,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>mlindsay11, Guest Relations Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded May 18, 2017</t>
   </si>
   <si>
@@ -411,6 +570,60 @@
     <t>This motel is similar to an extended stay. Rooms are clean, comfortable and have full kitchens. Rate is much better then local chains, and has better reviews.     The major difference in this motel, compared to extended stay, is your kitchen  is empty. At extended stay, you give them a list of what you need, coffee maker ect. They bring it to your room no charge. This hotel makes you buy everything you need. Most people do not want to carry a kitchen with them when they leave. Non the less even if your just looking for a room, it's a good deal and has an excellent staff. Would stay again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r425166460-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>425166460</t>
+  </si>
+  <si>
+    <t>10/04/2016</t>
+  </si>
+  <si>
+    <t>Bussines</t>
+  </si>
+  <si>
+    <t>Excellent place to stay at, Very Clean place,  Excellent staff,I would highly recommend this hotel. Plus just at a short distance from kehma Boardwalk, and the Tanger Outlets Thank you miss Ashley for your help.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 10, 2016</t>
+  </si>
+  <si>
+    <t>Excellent place to stay at, Very Clean place,  Excellent staff,I would highly recommend this hotel. Plus just at a short distance from kehma Boardwalk, and the Tanger Outlets Thank you miss Ashley for your help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r422962506-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>422962506</t>
+  </si>
+  <si>
+    <t>09/27/2016</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>Awesome staff! Ashley, Eli, Becky and Karen made sure my 9 days were pleasant.Rooms are very clean. Landry facilities were very clean as well. They maintenance and house keeping staff did an excellent job of keeping the place clean. I will definitely recommend this place to everyone. Thank you.John S. 129MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>Stephen S, General Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 29, 2016</t>
+  </si>
+  <si>
+    <t>Awesome staff! Ashley, Eli, Becky and Karen made sure my 9 days were pleasant.Rooms are very clean. Landry facilities were very clean as well. They maintenance and house keeping staff did an excellent job of keeping the place clean. I will definitely recommend this place to everyone. Thank you.John S. 129More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r413327387-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -483,6 +696,51 @@
     <t>I Hello , I recomend this Hotel because I stayed from July 2015 to July 2016 , and I didn't have any problem at all , good services , and friendly people , You walk to Kroger Supermarket , Taco Bell , KFC , Waffle house , Dennis , Asian , Italian , and Mexican food , seven miles to Bay town , and one mile to the beach.You'll be in a good , quiet ,and safe place.Thanks to Value place Hotel in LA Porte TX for all your attention. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r397245542-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>397245542</t>
+  </si>
+  <si>
+    <t>07/26/2016</t>
+  </si>
+  <si>
+    <t>Turnaround worker</t>
+  </si>
+  <si>
+    <t>The staff at the hotel were very accommodating.  Ended up having to stay longer than expected and had to work at night. They cleaned at night so that I could sleep. Just a great group to stay with. Gave tips on local businesses and routes to take or avoid.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>The staff at the hotel were very accommodating.  Ended up having to stay longer than expected and had to work at night. They cleaned at night so that I could sleep. Just a great group to stay with. Gave tips on local businesses and routes to take or avoid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r369253960-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>369253960</t>
+  </si>
+  <si>
+    <t>05/01/2016</t>
+  </si>
+  <si>
+    <t>You be the judge</t>
+  </si>
+  <si>
+    <t>In La Porte, TX, your room gets cleaned bi-weekly and it costs $25/wk to have your room cleaned more frequently.  Besides that, you have to pay an additional $10/wk for WiFi, no trailers allowed, and $10/wk to have them change out the towels and bedding.  They're probably about 1 step away from being a prision instead of a hotel.  If you have to "bother" the front desk for things other than an emergency, you will be charged $10.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ely A, General Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded May 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 20, 2016</t>
+  </si>
+  <si>
+    <t>In La Porte, TX, your room gets cleaned bi-weekly and it costs $25/wk to have your room cleaned more frequently.  Besides that, you have to pay an additional $10/wk for WiFi, no trailers allowed, and $10/wk to have them change out the towels and bedding.  They're probably about 1 step away from being a prision instead of a hotel.  If you have to "bother" the front desk for things other than an emergency, you will be charged $10.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r368558880-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -498,9 +756,6 @@
     <t>My fiance travels the majority of the year due to work therefore I have stayed in several hotels. I am a very honest person and I am here to tell you that Value Place located in La Porte, Texas is by far an excellent home away from home! I have stayed at several hotels that were completely disgusting and very unsanitary.  Value Place here in La Porte, Texas on the other hand is most definitely the cleanest I have stayed in. Not only is the cleanliness great but so is the complete staff! I have called the front desk on several different occasions for things I needed such as iron, ironing board, etc. And I never once had a single problem with any type of attitude. All I ever got from them was what I requested and complete kindness and professionalism. So if you need a place to stay at while visiting LA Porte, Texas and are on a low budget you certainly will enjoy your stay here and that's a promise!MoreShow less</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>Ely A, General Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded May 2, 2016</t>
   </si>
   <si>
@@ -555,6 +810,45 @@
     <t>Is this is the start of my third week here. It has been a normal working atmosphere. The rooms are kind of small, with a 2 burner stove, and a full size refrigerator it makes things feel more home. The rates could be better, but living on the road for 24 years, I have come to expect, you get what you pay for.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r333927536-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>333927536</t>
+  </si>
+  <si>
+    <t>12/19/2015</t>
+  </si>
+  <si>
+    <t>just another cheap place to stay.</t>
+  </si>
+  <si>
+    <t>nothing special, stayed a night before cruising out. we got there around 11 pm the office window was closed and there was no sign that said how you could check in on the counter. on the way back out to the vehicle i happened to see a phone on the other wall that was an after hours phone to call for help. (sign was small and i almost missed it) room was cheap (you get what you pay for). bed was maybe full size. size was not listed when i booked the room. figured it would at least been a queen. almost didnt feel comfortable enough to sleep under the covers. but i got cold and did. in the morning (about 9-930) went to get another towel and no one was STILL at the desk. i had to pick up the phone and call again for help. the SAME lady who helped me 10 hours earlier was the one that answered the phone (seemed like she was sleeping when i called) but no issues with getting an additional towel.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>nothing special, stayed a night before cruising out. we got there around 11 pm the office window was closed and there was no sign that said how you could check in on the counter. on the way back out to the vehicle i happened to see a phone on the other wall that was an after hours phone to call for help. (sign was small and i almost missed it) room was cheap (you get what you pay for). bed was maybe full size. size was not listed when i booked the room. figured it would at least been a queen. almost didnt feel comfortable enough to sleep under the covers. but i got cold and did. in the morning (about 9-930) went to get another towel and no one was STILL at the desk. i had to pick up the phone and call again for help. the SAME lady who helped me 10 hours earlier was the one that answered the phone (seemed like she was sleeping when i called) but no issues with getting an additional towel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r324405236-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>324405236</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>I had to stay here while working out of town for business and i had to check in late. I received a warm welcome even though it was 10:00pm. The front desk attendent, Becky was great. She welcomed me with a warm smile and checked me in as quick as possible. I will definitely use Value place again when i have to work out of town.  Jennifer M</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r323020952-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -606,6 +900,39 @@
     <t xml:space="preserve">We stayed here for one night only. Checkin/checkout was fast. There was a lot of men staying here  for work purposes, but we didn't mind since we just wanted  a place to sleep at night. The only thing I had a small issue with was the smell of the room. It wasn't horrible but it smelled like it had been dampened and closed in. </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r289624907-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>289624907</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Nice Stay</t>
+  </si>
+  <si>
+    <t>We had driven down from fort worth and arrived early but value place still let us check in. It was July 4th weekend and the person at the front door gave us excellent recommendations of where to go see fireworks that night. The room was clean and bathroom was really big. The beds were comfortable and the air conditioning worked. Even the elevator was working which we saw was complained about in other reviews. The price was awesome only $80 when everyone in Galveston was charging $300.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r288563502-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>288563502</t>
+  </si>
+  <si>
+    <t>07/13/2015</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>Just needed a getaway for a night. Hotel was nice staff was friendly and the room was clean. No complaints here. They have great rates and the next time we just need a getaway we'll be staying here. Happy customer!!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r282771100-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -648,6 +975,45 @@
     <t>the value place is a great place to stay with a friendly staff who knows your name and you're not just another customer. Its very secure so you feel safe. They really make you feel like you're home away from home.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r276276559-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>276276559</t>
+  </si>
+  <si>
+    <t>05/31/2015</t>
+  </si>
+  <si>
+    <t>This has been a great experiance, I have been here a long time and this place is top knotch</t>
+  </si>
+  <si>
+    <t>I have stayed at extended stays all across the country, never have I had the care and concideration that the staff in La Porte TX. have given me.  I had a injury to my knee not only did my staff offer any assistance they could provide they even went one step further to bring from my car my dry cleaning and groceries. No matter were I work in Houston TX I will stay here and drive the extra mile they treat you like family. I have only been here for 11 months so if any one should know what its like here I am you man.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r275846404-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>275846404</t>
+  </si>
+  <si>
+    <t>05/30/2015</t>
+  </si>
+  <si>
+    <t>My comfortable and convienient stay in LaPort, Tx.</t>
+  </si>
+  <si>
+    <t>In all my work related travels this is my first stay at a Value Place Property. I have been working nights since my arrival in November 2015 and will be here a while longer and I couldn't be more satisfied. The staff has been very accommodating to my needs as a night worker. The option to prepare my own meals when time allowed is a perfect situation. The location allows easy access to the surrounding area with minimal traffic and a variety local businesses for me to take care of my shopping needs. I would recommend this location for those working in this area. I am looking forward to staying at another Value Place location if available on my next assignment.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>In all my work related travels this is my first stay at a Value Place Property. I have been working nights since my arrival in November 2015 and will be here a while longer and I couldn't be more satisfied. The staff has been very accommodating to my needs as a night worker. The option to prepare my own meals when time allowed is a perfect situation. The location allows easy access to the surrounding area with minimal traffic and a variety local businesses for me to take care of my shopping needs. I would recommend this location for those working in this area. I am looking forward to staying at another Value Place location if available on my next assignment.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r250375212-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -711,6 +1077,39 @@
     <t>March 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r197548142-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>197548142</t>
+  </si>
+  <si>
+    <t>03/15/2014</t>
+  </si>
+  <si>
+    <t>Couldn't Be Any Happier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've stayed here several times at this location.All the employees are very friendly and helpful. Andrea was also very helpful and always had a huge smile on her face every time we saw her. That always made our day. Knowing that the staff is in the highest of spirits. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r196527343-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>196527343</t>
+  </si>
+  <si>
+    <t>03/07/2014</t>
+  </si>
+  <si>
+    <t>Clean and friendly</t>
+  </si>
+  <si>
+    <t>Stayed here during my transition from Houston to Arlington.  Clean rooms, friendly staff and affordable.  Internet is a little slow but at least it works.  Andrea and Jermaine are easy to work with and very helpful.  They always great you with a smile. Definitely will stay here again.</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r194569283-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -729,9 +1128,6 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>You could not ask for a better staff than at the Value Place in La Porte, Texas.  Being confined to a wheelchair you would think things would be limited. Not at the Value Place, they are at the top of there game for handy crap accessibility. And any time you need anything day or night they are right their. I had got stuck in the shower and poor John was right there in a flash. His a very good maintenance man. He keeps the place ticking.  And Kelly goes way beyond being just an employee. I could not get to the store because it was raining. So she went when she got off. She really is a great employee. Besides having a pretty smile. She just brightens your day. Kelly and John are just a few. You have Jermaine, Andrea, and Stephanie. They are all hard worker's. I will be glad to recommend Value Place to all my friends and family.More</t>
   </si>
   <si>
@@ -750,9 +1146,6 @@
     <t xml:space="preserve">I'm not a big hotel fan of any sorts but I was very, very pleased with value place in la porte. The hotel was extremely clean and the customer service was outstanding.  Kelly will greet you with a smile everyday and genuinely seem to care how I'm doing. Other employees like John has gone out of his way to be helpful and always has been very nice. This hotel has a wonderful concept of how to run a great buisness. I like the fact that all the rooms have kitchens and everything is optional here. If you dont need it you dont pay for it. </t>
   </si>
   <si>
-    <t>February 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r194008729-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -777,6 +1170,42 @@
     <t>The elevator was messed up everyday, one employes thought it was funny, stating "Merry Christmas" It's not funny to climb four stories after working 12 hour days, especially everyday. We had to carry all our stuff up four flights of stairs! One employee could only tell me how the boss would only buy the "cheapest stuff" for the motel. Every time you would see him he was complaining. Didn't smell like he had a bath in days. The heat didn't work in our room. When I went to the front desk to get clean towels he stated "I don't guess I'm gonna get to eat anytime soon with people coming to the desk". He brought me back a basket of wadded up towels and stated "that's how you get them, sorry but I have to eat too you know". We checked out and moved to a better motel.  More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r193821835-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>193821835</t>
+  </si>
+  <si>
+    <t>02/11/2014</t>
+  </si>
+  <si>
+    <t>Buisness Trip</t>
+  </si>
+  <si>
+    <t>the stay here was excellent. jermaine,Kelly,Andrea,Jonh,and Stephanie were very helpful and respectful. Everything i needed they were quick to help. LaPorte Texas was excellant property to stay. i would recommand others to stay here for visiting buisness moving and etc..</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r193532877-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>193532877</t>
+  </si>
+  <si>
+    <t>02/09/2014</t>
+  </si>
+  <si>
+    <t>we are having our house built as well.....</t>
+  </si>
+  <si>
+    <t>Jermaine, Kelly and John have been extremely helpful and nice in making our stay as comfortable as possible.  we have been here for 4 months while our house is being built in deer park.  everybody is very kind.  its always quiet and nobody bothers nobody. i work shiftwork for a refinery in the area and i always get plenty of rest while i sleep during the days.  Thank you for your hospitality Jermaine, your a very honest and kind person.PAP</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r193292929-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -792,9 +1221,6 @@
     <t>We recently sold our home and are preparing to build a new home.  We decided to stay at Value Place until things were ready. Staff are all friendly (Jermaine and Kelly)  Housekeepers are great and so are maintenance guys. The suite was clean and welcoming.</t>
   </si>
   <si>
-    <t>January 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r193205182-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -834,15 +1260,39 @@
     <t>My husband and I had the pleasure of staying here for one week. The staff here with extremely friendly and helpful. Jermaine, Kelly and John went out of their way to make sure we were comfortable and had everything we needed. We would have stayed here longer but we had to move closer to my husband's job.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r192524211-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>192524211</t>
+  </si>
+  <si>
+    <t>01/29/2014</t>
+  </si>
+  <si>
+    <t>Awesome hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I had never stayed at an extended stay hotel before and I was very satisfied with my experience here at value place in la porte. First an awesome check in experience with a lady named Kelly. She was so pleasent and friendly. She made me feel very welcome. Then the room was so clean and nice. I loved the kitchen and full size fridge. The staff was very attentive to my needs. Overall a safe clean and friendly place. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r192497974-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>192497974</t>
+  </si>
+  <si>
+    <t>Texas Traveler 412</t>
+  </si>
+  <si>
+    <t>I have stayed in many hotels over the years while traveling for work. I just wanted to comment on the management team here at Value Place in LaPorte,Texas. Jermaine and Miss Kelly are always very friendly and helpful and it has been a real pleasure dealing with them.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r192487204-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
     <t>192487204</t>
   </si>
   <si>
-    <t>01/29/2014</t>
-  </si>
-  <si>
     <t>Love Value Place In La Porte Texas</t>
   </si>
   <si>
@@ -900,6 +1350,60 @@
     <t>This hotel provides a clean, safe atmosphere which is easy to settle into, especially for a long stay, with ample space, amenities and a very friendly staff making your stay here very easy and home-like.It is conveniently located next to 2 small shopping strips offering groceries, banking, restaurants, breakfast houses, fast food, gas, barber/beauty shop, and a few small shops. Also, blocks from a large post office, pharmacy, laundry services, and a very lovely park on the water. *But the traffic is not bad, the hotel is easy to get in and out of and parking is never a hassle. The lot is very well lit, I've always felt my cars &amp; family were safe at all times.The two main things I like most is: the safety (u must use a key card to enter into the bldg and areas like the wash room; and no rowdy or shady ppl are ever around or in the bldg) and the other main thing is the very helpful, friendly and accommodating staff!The only real complaint or downfall here is the Internet situation, there is no WiFi and I'm not sure what's up with the wired service- may be my own error...More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r114262184-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>114262184</t>
+  </si>
+  <si>
+    <t>06/18/2011</t>
+  </si>
+  <si>
+    <t>What a RIPOFF!</t>
+  </si>
+  <si>
+    <t>Had to pay a $100 deposit for a weeks stay and had to stay another day, so I paid for the extra day.  When I got back to the room that night I was locked out.  The front desk said I had to pay for Sunday even though I am not going to be there.  They said no one would be there on Sunday to make sure He checked out of the room.  So had to pay for ANOTHER NIGHT JUST SO I COULD GET INTO THE ROOM~THE ROOM THAT I HAD ALREADY PAID FOR!  THIS PLACE IS TOTAL BS!  I BETTER GET MY DEPOSIT BACK, OR THEY WILL BE IN COURT!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 27, 2012</t>
+  </si>
+  <si>
+    <t>Had to pay a $100 deposit for a weeks stay and had to stay another day, so I paid for the extra day.  When I got back to the room that night I was locked out.  The front desk said I had to pay for Sunday even though I am not going to be there.  They said no one would be there on Sunday to make sure He checked out of the room.  So had to pay for ANOTHER NIGHT JUST SO I COULD GET INTO THE ROOM~THE ROOM THAT I HAD ALREADY PAID FOR!  THIS PLACE IS TOTAL BS!  I BETTER GET MY DEPOSIT BACK, OR THEY WILL BE IN COURT!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r55785826-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>55785826</t>
+  </si>
+  <si>
+    <t>02/11/2010</t>
+  </si>
+  <si>
+    <t>At this time top top top. ( i living in Hotels over 40 years)</t>
+  </si>
+  <si>
+    <t>Friendly welkom reception, Quit area, no Parking Problems, clean rooms, TV. Interneet thats all i need!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2008</t>
+  </si>
+  <si>
+    <t>Heather L, Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded July 23, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2012</t>
+  </si>
+  <si>
+    <t>Friendly welkom reception, Quit area, no Parking Problems, clean rooms, TV. Interneet thats all i need!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r54862957-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
   </si>
   <si>
@@ -939,12 +1443,6 @@
     <t>September 2009</t>
   </si>
   <si>
-    <t>Heather L, Manager at WoodSpring Suites Houston La Porte, responded to this reviewResponded July 23, 2012</t>
-  </si>
-  <si>
-    <t>Responded July 23, 2012</t>
-  </si>
-  <si>
     <t>i stayed there for two weeks and I was able to exchange my linnens everyday, the location is close to the freewa. also, they had security cameras in all hallways, nice and safe!!!More</t>
   </si>
   <si>
@@ -964,6 +1462,27 @@
   </si>
   <si>
     <t>August 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56110-d729624-r29842422-WoodSpring_Suites_Houston_La_Porte-La_Porte_Texas.html</t>
+  </si>
+  <si>
+    <t>29842422</t>
+  </si>
+  <si>
+    <t>05/12/2009</t>
+  </si>
+  <si>
+    <t>Just Horrible</t>
+  </si>
+  <si>
+    <t>Arrived at 2:30 a.m. Saturday night. Paid for room in advance for the week.  Followed after hour check in instructions to call ext and someone would meet us in lobby. Employees coming in and out stated "could not help us." No one responded until 5:30 a.m. When we did get response was told "I am trying to sleep." Very rude person..and that is an understatment.  My wife was hysterical..this was her first impression of Houston after being transfered here and having to move.  Shower doesn't work..no water pressure..no curtains on windows..(not good if you are working nights during your stay) Traffic noise..no dishes for long stay (they neglect to tell you this..you have to buy them so beware) ...rude staff..just horrible all the way around. We have to stay until friday..but good riddance to this nasty..hateful...very bad hotel. Beware.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>Arrived at 2:30 a.m. Saturday night. Paid for room in advance for the week.  Followed after hour check in instructions to call ext and someone would meet us in lobby. Employees coming in and out stated "could not help us." No one responded until 5:30 a.m. When we did get response was told "I am trying to sleep." Very rude person..and that is an understatment.  My wife was hysterical..this was her first impression of Houston after being transfered here and having to move.  Shower doesn't work..no water pressure..no curtains on windows..(not good if you are working nights during your stay) Traffic noise..no dishes for long stay (they neglect to tell you this..you have to buy them so beware) ...rude staff..just horrible all the way around. We have to stay until friday..but good riddance to this nasty..hateful...very bad hotel. Beware.More</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +2017,7 @@
         <v>50</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>51</v>
@@ -1559,7 +2078,7 @@
         <v>60</v>
       </c>
       <c r="M3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
         <v>61</v>
@@ -1568,17 +2087,11 @@
         <v>52</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1626,10 +2139,14 @@
         <v>69</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
@@ -1640,13 +2157,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
@@ -1662,7 +2179,7 @@
         <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>45</v>
@@ -1671,43 +2188,49 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
       <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
@@ -1723,7 +2246,7 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
         <v>45</v>
@@ -1732,49 +2255,39 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
-      </c>
-      <c r="N6" t="s">
-        <v>87</v>
-      </c>
-      <c r="O6" t="s">
-        <v>52</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>3</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7">
@@ -1790,7 +2303,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -1799,25 +2312,25 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1829,13 +2342,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="X7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
@@ -1851,7 +2364,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -1860,32 +2373,32 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>5</v>
@@ -1894,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
@@ -1916,7 +2429,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -1925,49 +2438,43 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
-      </c>
-      <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="X9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="Y9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10">
@@ -1983,7 +2490,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -1992,43 +2499,49 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="J10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="X10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11">
@@ -2044,7 +2557,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2053,47 +2566,43 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="J11" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="X11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Y11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
@@ -2109,7 +2618,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2118,43 +2627,47 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K12" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
-      <c r="R12" t="s"/>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="X12" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Y12" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
@@ -2170,7 +2683,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2179,43 +2692,47 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J13" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K13" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L13" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="X13" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
@@ -2231,7 +2748,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2240,43 +2757,47 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="O14" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15">
@@ -2292,7 +2813,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2301,34 +2822,34 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="n">
         <v>5</v>
       </c>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -2337,13 +2858,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
@@ -2359,7 +2880,7 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G16" t="s">
         <v>45</v>
@@ -2368,25 +2889,25 @@
         <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2398,13 +2919,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="X16" t="s">
-        <v>158</v>
+        <v>178</v>
       </c>
       <c r="Y16" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
@@ -2420,7 +2941,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2429,25 +2950,25 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="O17" t="s">
-        <v>181</v>
+        <v>71</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -2458,10 +2979,14 @@
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>186</v>
+      </c>
+      <c r="X17" t="s">
+        <v>187</v>
+      </c>
       <c r="Y17" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
@@ -2477,7 +3002,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2486,39 +3011,47 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="J18" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="O18" t="s">
-        <v>181</v>
+        <v>107</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
-      <c r="R18" t="s"/>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>195</v>
+      </c>
+      <c r="X18" t="s">
+        <v>196</v>
+      </c>
       <c r="Y18" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19">
@@ -2534,7 +3067,7 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="G19" t="s">
         <v>45</v>
@@ -2543,39 +3076,47 @@
         <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="K19" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>149</v>
+        <v>203</v>
       </c>
       <c r="O19" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
-      <c r="U19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
+      <c r="W19" t="s">
+        <v>204</v>
+      </c>
+      <c r="X19" t="s">
+        <v>205</v>
+      </c>
       <c r="Y19" t="s">
-        <v>191</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20">
@@ -2591,7 +3132,7 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="G20" t="s">
         <v>45</v>
@@ -2600,45 +3141,43 @@
         <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="J20" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="K20" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="P20" t="s"/>
-      <c r="Q20" t="n">
-        <v>5</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
+      <c r="W20" t="s">
+        <v>212</v>
+      </c>
+      <c r="X20" t="s">
+        <v>213</v>
+      </c>
       <c r="Y20" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
     </row>
     <row r="21">
@@ -2654,7 +3193,7 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>215</v>
       </c>
       <c r="G21" t="s">
         <v>45</v>
@@ -2663,45 +3202,43 @@
         <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>216</v>
       </c>
       <c r="J21" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>197</v>
+        <v>220</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>4</v>
-      </c>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>212</v>
+      </c>
+      <c r="X21" t="s">
+        <v>213</v>
+      </c>
       <c r="Y21" t="s">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
@@ -2717,7 +3254,7 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="G22" t="s">
         <v>45</v>
@@ -2726,25 +3263,25 @@
         <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
       <c r="J22" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="K22" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="L22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="O22" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -2755,10 +3292,14 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>212</v>
+      </c>
+      <c r="X22" t="s">
+        <v>213</v>
+      </c>
       <c r="Y22" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23">
@@ -2774,7 +3315,7 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="G23" t="s">
         <v>45</v>
@@ -2783,47 +3324,49 @@
         <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>232</v>
       </c>
       <c r="L23" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="O23" t="s">
         <v>52</v>
       </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>4</v>
-      </c>
-      <c r="R23" t="s"/>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="X23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="Y23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
@@ -2839,7 +3382,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -2848,45 +3391,43 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="J24" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s"/>
-      <c r="O24" t="s"/>
-      <c r="P24" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>3</v>
-      </c>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>227</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>242</v>
+      </c>
+      <c r="X24" t="s">
+        <v>243</v>
+      </c>
       <c r="Y24" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25">
@@ -2902,7 +3443,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -2911,39 +3452,49 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="J25" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="K25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="L25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>251</v>
+      </c>
+      <c r="X25" t="s">
+        <v>252</v>
+      </c>
       <c r="Y25" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
@@ -2959,7 +3510,7 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="G26" t="s">
         <v>45</v>
@@ -2968,49 +3519,43 @@
         <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="J26" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="K26" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="L26" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="O26" t="s">
-        <v>233</v>
-      </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s"/>
-      <c r="X26" t="s"/>
+      <c r="W26" t="s">
+        <v>242</v>
+      </c>
+      <c r="X26" t="s">
+        <v>243</v>
+      </c>
       <c r="Y26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
     </row>
     <row r="27">
@@ -3026,7 +3571,7 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="G27" t="s">
         <v>45</v>
@@ -3035,39 +3580,45 @@
         <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="J27" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="K27" t="s">
-        <v>238</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="O27" t="s">
-        <v>181</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+        <v>150</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>2</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28">
@@ -3083,7 +3634,7 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="G28" t="s">
         <v>45</v>
@@ -3092,49 +3643,45 @@
         <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="J28" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="K28" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="s"/>
-      <c r="O28" t="s"/>
-      <c r="P28" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>272</v>
+      </c>
+      <c r="O28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>246</v>
-      </c>
-      <c r="X28" t="s">
-        <v>247</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29">
@@ -3150,7 +3697,7 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="G29" t="s">
         <v>45</v>
@@ -3159,49 +3706,39 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="J29" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="K29" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="L29" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="O29" t="s">
-        <v>96</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>4</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>4</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>4</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30">
@@ -3217,7 +3754,7 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="G30" t="s">
         <v>45</v>
@@ -3226,45 +3763,39 @@
         <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
       <c r="J30" t="s">
-        <v>257</v>
+        <v>282</v>
       </c>
       <c r="K30" t="s">
-        <v>258</v>
+        <v>283</v>
       </c>
       <c r="L30" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
-      <c r="P30" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="N30" t="s">
+        <v>278</v>
+      </c>
+      <c r="O30" t="s">
+        <v>279</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>259</v>
+        <v>284</v>
       </c>
     </row>
     <row r="31">
@@ -3280,7 +3811,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>260</v>
+        <v>285</v>
       </c>
       <c r="G31" t="s">
         <v>45</v>
@@ -3289,22 +3820,22 @@
         <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>261</v>
+        <v>286</v>
       </c>
       <c r="J31" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="K31" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="L31" t="s">
-        <v>264</v>
+        <v>289</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="O31" t="s">
         <v>52</v>
@@ -3318,14 +3849,10 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>265</v>
-      </c>
-      <c r="X31" t="s">
-        <v>266</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32">
@@ -3341,7 +3868,7 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="G32" t="s">
         <v>45</v>
@@ -3350,39 +3877,45 @@
         <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="J32" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="K32" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="O32" t="s">
-        <v>181</v>
+        <v>52</v>
       </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
       <c r="R32" t="s"/>
-      <c r="S32" t="s"/>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33">
@@ -3398,7 +3931,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="G33" t="s">
         <v>45</v>
@@ -3407,53 +3940,39 @@
         <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>274</v>
+        <v>297</v>
       </c>
       <c r="J33" t="s">
-        <v>275</v>
+        <v>298</v>
       </c>
       <c r="K33" t="s">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="L33" t="s">
-        <v>277</v>
+        <v>300</v>
       </c>
       <c r="M33" t="n">
         <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="O33" t="s">
-        <v>96</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>5</v>
-      </c>
-      <c r="R33" t="n">
-        <v>5</v>
-      </c>
-      <c r="S33" t="n">
-        <v>5</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>5</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
-      <c r="W33" t="s">
-        <v>279</v>
-      </c>
-      <c r="X33" t="s">
-        <v>280</v>
-      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>281</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34">
@@ -3469,7 +3988,7 @@
         <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="G34" t="s">
         <v>45</v>
@@ -3478,49 +3997,45 @@
         <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>283</v>
+        <v>302</v>
       </c>
       <c r="J34" t="s">
-        <v>284</v>
+        <v>303</v>
       </c>
       <c r="K34" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="L34" t="s">
-        <v>286</v>
+        <v>305</v>
       </c>
       <c r="M34" t="n">
-        <v>4</v>
-      </c>
-      <c r="N34" t="s"/>
-      <c r="O34" t="s"/>
-      <c r="P34" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>306</v>
+      </c>
+      <c r="O34" t="s">
+        <v>71</v>
+      </c>
+      <c r="P34" t="s"/>
       <c r="Q34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s">
-        <v>287</v>
-      </c>
-      <c r="X34" t="s">
-        <v>288</v>
-      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>289</v>
+        <v>305</v>
       </c>
     </row>
     <row r="35">
@@ -3536,7 +4051,7 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="G35" t="s">
         <v>45</v>
@@ -3545,41 +4060,37 @@
         <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="J35" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="K35" t="s">
-        <v>293</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N35" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
-      </c>
-      <c r="P35" t="n">
-        <v>2</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P35" t="s"/>
       <c r="Q35" t="n">
         <v>4</v>
       </c>
       <c r="R35" t="n">
         <v>5</v>
       </c>
-      <c r="S35" t="n">
-        <v>3</v>
-      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3587,7 +4098,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36">
@@ -3603,7 +4114,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="G36" t="s">
         <v>45</v>
@@ -3612,51 +4123,39 @@
         <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="J36" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="K36" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="L36" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="O36" t="s">
         <v>52</v>
       </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
+      <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>4</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>303</v>
-      </c>
-      <c r="X36" t="s">
-        <v>304</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="37">
@@ -3672,7 +4171,7 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="G37" t="s">
         <v>45</v>
@@ -3681,41 +4180,35 @@
         <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="J37" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="K37" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="L37" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
-      </c>
-      <c r="P37" t="n">
-        <v>1</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>1</v>
-      </c>
-      <c r="R37" t="n">
-        <v>3</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3723,7 +4216,1622 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>310</v>
+        <v>319</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>321</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>322</v>
+      </c>
+      <c r="J38" t="s">
+        <v>323</v>
+      </c>
+      <c r="K38" t="s">
+        <v>324</v>
+      </c>
+      <c r="L38" t="s">
+        <v>325</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>326</v>
+      </c>
+      <c r="O38" t="s">
+        <v>71</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>329</v>
+      </c>
+      <c r="J39" t="s">
+        <v>330</v>
+      </c>
+      <c r="K39" t="s">
+        <v>331</v>
+      </c>
+      <c r="L39" t="s">
+        <v>332</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>333</v>
+      </c>
+      <c r="O39" t="s">
+        <v>71</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>334</v>
+      </c>
+      <c r="X39" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>337</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>338</v>
+      </c>
+      <c r="J40" t="s">
+        <v>339</v>
+      </c>
+      <c r="K40" t="s">
+        <v>340</v>
+      </c>
+      <c r="L40" t="s">
+        <v>341</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>2</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>343</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>344</v>
+      </c>
+      <c r="J41" t="s">
+        <v>345</v>
+      </c>
+      <c r="K41" t="s">
+        <v>346</v>
+      </c>
+      <c r="L41" t="s">
+        <v>347</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>348</v>
+      </c>
+      <c r="O41" t="s">
+        <v>71</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>349</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>350</v>
+      </c>
+      <c r="J42" t="s">
+        <v>351</v>
+      </c>
+      <c r="K42" t="s">
+        <v>352</v>
+      </c>
+      <c r="L42" t="s">
+        <v>353</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>354</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>355</v>
+      </c>
+      <c r="J43" t="s">
+        <v>356</v>
+      </c>
+      <c r="K43" t="s">
+        <v>357</v>
+      </c>
+      <c r="L43" t="s">
+        <v>358</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>359</v>
+      </c>
+      <c r="O43" t="s">
+        <v>279</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>360</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>361</v>
+      </c>
+      <c r="J44" t="s">
+        <v>362</v>
+      </c>
+      <c r="K44" t="s">
+        <v>363</v>
+      </c>
+      <c r="L44" t="s">
+        <v>364</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>365</v>
+      </c>
+      <c r="O44" t="s">
+        <v>107</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>367</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>368</v>
+      </c>
+      <c r="J45" t="s">
+        <v>369</v>
+      </c>
+      <c r="K45" t="s">
+        <v>370</v>
+      </c>
+      <c r="L45" t="s">
+        <v>371</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>359</v>
+      </c>
+      <c r="O45" t="s">
+        <v>279</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>372</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>373</v>
+      </c>
+      <c r="J46" t="s">
+        <v>374</v>
+      </c>
+      <c r="K46" t="s">
+        <v>375</v>
+      </c>
+      <c r="L46" t="s">
+        <v>376</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>377</v>
+      </c>
+      <c r="X46" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>380</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>381</v>
+      </c>
+      <c r="J47" t="s">
+        <v>382</v>
+      </c>
+      <c r="K47" t="s">
+        <v>383</v>
+      </c>
+      <c r="L47" t="s">
+        <v>384</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>385</v>
+      </c>
+      <c r="O47" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>386</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>387</v>
+      </c>
+      <c r="J48" t="s">
+        <v>388</v>
+      </c>
+      <c r="K48" t="s">
+        <v>389</v>
+      </c>
+      <c r="L48" t="s">
+        <v>390</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>391</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>392</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>393</v>
+      </c>
+      <c r="J49" t="s">
+        <v>394</v>
+      </c>
+      <c r="K49" t="s">
+        <v>395</v>
+      </c>
+      <c r="L49" t="s">
+        <v>396</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>385</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>397</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>398</v>
+      </c>
+      <c r="J50" t="s">
+        <v>399</v>
+      </c>
+      <c r="K50" t="s">
+        <v>400</v>
+      </c>
+      <c r="L50" t="s">
+        <v>401</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>402</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>403</v>
+      </c>
+      <c r="J51" t="s">
+        <v>404</v>
+      </c>
+      <c r="K51" t="s">
+        <v>405</v>
+      </c>
+      <c r="L51" t="s">
+        <v>406</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>385</v>
+      </c>
+      <c r="O51" t="s">
+        <v>71</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>407</v>
+      </c>
+      <c r="X51" t="s">
+        <v>408</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>410</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>411</v>
+      </c>
+      <c r="J52" t="s">
+        <v>412</v>
+      </c>
+      <c r="K52" t="s">
+        <v>413</v>
+      </c>
+      <c r="L52" t="s">
+        <v>414</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>4</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>415</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>416</v>
+      </c>
+      <c r="J53" t="s">
+        <v>412</v>
+      </c>
+      <c r="K53" t="s">
+        <v>417</v>
+      </c>
+      <c r="L53" t="s">
+        <v>418</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>385</v>
+      </c>
+      <c r="O53" t="s">
+        <v>71</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>419</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>420</v>
+      </c>
+      <c r="J54" t="s">
+        <v>412</v>
+      </c>
+      <c r="K54" t="s">
+        <v>421</v>
+      </c>
+      <c r="L54" t="s">
+        <v>422</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>385</v>
+      </c>
+      <c r="O54" t="s">
+        <v>279</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="s"/>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>423</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>424</v>
+      </c>
+      <c r="J55" t="s">
+        <v>425</v>
+      </c>
+      <c r="K55" t="s">
+        <v>426</v>
+      </c>
+      <c r="L55" t="s">
+        <v>427</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>428</v>
+      </c>
+      <c r="O55" t="s">
+        <v>52</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>429</v>
+      </c>
+      <c r="X55" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>432</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>433</v>
+      </c>
+      <c r="J56" t="s">
+        <v>434</v>
+      </c>
+      <c r="K56" t="s">
+        <v>435</v>
+      </c>
+      <c r="L56" t="s">
+        <v>436</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>437</v>
+      </c>
+      <c r="X56" t="s">
+        <v>438</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>440</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>441</v>
+      </c>
+      <c r="J57" t="s">
+        <v>442</v>
+      </c>
+      <c r="K57" t="s">
+        <v>443</v>
+      </c>
+      <c r="L57" t="s">
+        <v>444</v>
+      </c>
+      <c r="M57" t="n">
+        <v>1</v>
+      </c>
+      <c r="N57" t="s">
+        <v>445</v>
+      </c>
+      <c r="O57" t="s">
+        <v>71</v>
+      </c>
+      <c r="P57" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>446</v>
+      </c>
+      <c r="X57" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>449</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>450</v>
+      </c>
+      <c r="J58" t="s">
+        <v>451</v>
+      </c>
+      <c r="K58" t="s">
+        <v>452</v>
+      </c>
+      <c r="L58" t="s">
+        <v>453</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>454</v>
+      </c>
+      <c r="O58" t="s">
+        <v>107</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>455</v>
+      </c>
+      <c r="X58" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>458</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>459</v>
+      </c>
+      <c r="J59" t="s">
+        <v>460</v>
+      </c>
+      <c r="K59" t="s">
+        <v>461</v>
+      </c>
+      <c r="L59" t="s">
+        <v>462</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="s">
+        <v>463</v>
+      </c>
+      <c r="O59" t="s">
+        <v>71</v>
+      </c>
+      <c r="P59" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>465</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>466</v>
+      </c>
+      <c r="J60" t="s">
+        <v>467</v>
+      </c>
+      <c r="K60" t="s">
+        <v>468</v>
+      </c>
+      <c r="L60" t="s">
+        <v>469</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>470</v>
+      </c>
+      <c r="O60" t="s">
+        <v>71</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>4</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>455</v>
+      </c>
+      <c r="X60" t="s">
+        <v>456</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>472</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>473</v>
+      </c>
+      <c r="J61" t="s">
+        <v>474</v>
+      </c>
+      <c r="K61" t="s">
+        <v>475</v>
+      </c>
+      <c r="L61" t="s">
+        <v>476</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s">
+        <v>477</v>
+      </c>
+      <c r="O61" t="s">
+        <v>71</v>
+      </c>
+      <c r="P61" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>55797</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>478</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>479</v>
+      </c>
+      <c r="J62" t="s">
+        <v>480</v>
+      </c>
+      <c r="K62" t="s">
+        <v>481</v>
+      </c>
+      <c r="L62" t="s">
+        <v>482</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="s">
+        <v>483</v>
+      </c>
+      <c r="O62" t="s">
+        <v>71</v>
+      </c>
+      <c r="P62" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>1</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>
